--- a/Tables/corr_informal.xlsx
+++ b/Tables/corr_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2963BF-60F6-4B30-B125-C431BD8C310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB5CAE-5A31-4E06-B378-BF3875291AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8100" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19365" yWindow="-5160" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_informal_mun" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,11 +148,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -162,6 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB8512-928C-4338-851B-25E1242197CB}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +639,7 @@
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -637,22 +651,22 @@
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
+      <c r="A14" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B14">
         <f>ROUND(B2,3)</f>
@@ -679,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>ROUND(B7,3)</f>
@@ -707,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f>ROUND(B8,3)</f>
@@ -724,7 +738,7 @@
     </row>
     <row r="17" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <f>ROUND(B9,3)</f>
@@ -745,7 +759,7 @@
     </row>
     <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <f>ROUND(B10,3)</f>
@@ -782,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,29 +811,29 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.0283801566460748E-3</v>
+        <v>1.5645797551248893E-2</v>
       </c>
       <c r="D2">
-        <v>1.9008558242155294E-2</v>
+        <v>3.8198033897503196E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>2.0283801566460748E-3</v>
+        <v>1.5645797551248893E-2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.45644218861786429</v>
+        <v>0.48923823016205803</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>1.9008558242155294E-2</v>
+        <v>3.8198033897503196E-2</v>
       </c>
       <c r="C4">
-        <v>0.45644218861786429</v>
+        <v>0.48923823016205803</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -830,81 +844,81 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.55021859014012509</v>
+        <v>0.64193047692073457</v>
       </c>
       <c r="D6">
-        <v>0.55584983773946539</v>
+        <v>0.53718101066786839</v>
       </c>
       <c r="E6">
-        <v>0.21888472388058614</v>
+        <v>0.54305505057422765</v>
       </c>
       <c r="F6">
-        <v>0.64120101379191752</v>
+        <v>0.23439200411254166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.55021859014012509</v>
+        <v>0.64193047692073457</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9853887139684594</v>
+        <v>0.34410886680560049</v>
       </c>
       <c r="E7">
-        <v>7.5260344436165499E-2</v>
+        <v>0.34731212729454142</v>
       </c>
       <c r="F7">
-        <v>0.34964227869162634</v>
+        <v>0.32216300266308034</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.55584983773946539</v>
+        <v>0.53718101066786839</v>
       </c>
       <c r="C8">
-        <v>0.9853887139684594</v>
+        <v>0.34410886680560049</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>7.7777127688970771E-2</v>
+        <v>0.98417384399878505</v>
       </c>
       <c r="F8">
-        <v>0.35265717455815027</v>
+        <v>7.8517043945591308E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>0.21888472388058614</v>
+        <v>0.54305505057422765</v>
       </c>
       <c r="C9">
-        <v>7.5260344436165499E-2</v>
+        <v>0.34731212729454142</v>
       </c>
       <c r="D9">
-        <v>7.7777127688970771E-2</v>
+        <v>0.98417384399878505</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.31022353662619973</v>
+        <v>8.0906677114266939E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>0.64120101379191752</v>
+        <v>0.23439200411254166</v>
       </c>
       <c r="C10">
-        <v>0.34964227869162634</v>
+        <v>0.32216300266308034</v>
       </c>
       <c r="D10">
-        <v>0.35265717455815027</v>
+        <v>7.8517043945591308E-2</v>
       </c>
       <c r="E10">
-        <v>0.31022353662619973</v>
+        <v>8.0906677114266939E-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -929,7 +943,7 @@
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -941,24 +955,24 @@
       <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>1</v>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8">
         <f>ROUND(B2,3)</f>
         <v>1</v>
       </c>
@@ -976,18 +990,18 @@
       </c>
       <c r="B15">
         <f t="shared" ref="B15:D16" si="0">ROUND(B3,3)</f>
-        <v>2E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>ROUND(B7,3)</f>
-        <v>0.55000000000000004</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="H15">
         <f>ROUND(C7,3)</f>
@@ -1000,26 +1014,26 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>1.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.45600000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f>ROUND(B8,3)</f>
-        <v>0.55600000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="H16">
         <f>ROUND(C8,3)</f>
-        <v>0.98499999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I16">
         <f>ROUND(D8,3)</f>
@@ -1028,19 +1042,19 @@
     </row>
     <row r="17" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <f>ROUND(B9,3)</f>
-        <v>0.219</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H17">
         <f>ROUND(C9,3)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="I17">
         <f>ROUND(D9,3)</f>
-        <v>7.8E-2</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="J17">
         <f>ROUND(E9,3)</f>
@@ -1049,23 +1063,23 @@
     </row>
     <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <f>ROUND(B10,3)</f>
-        <v>0.64100000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H18" s="1">
         <f>ROUND(C10,3)</f>
-        <v>0.35</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="I18" s="1">
         <f>ROUND(D10,3)</f>
-        <v>0.35299999999999998</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J18" s="1">
         <f>ROUND(E10,3)</f>
-        <v>0.31</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K18" s="1">
         <f>ROUND(F10,3)</f>

--- a/Tables/corr_informal.xlsx
+++ b/Tables/corr_informal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABB5CAE-5A31-4E06-B378-BF3875291AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D355F0E-DEE8-4072-A80D-53EE64C512FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19365" yWindow="-5160" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_informal_mun" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>Informal</t>
   </si>
@@ -41,25 +41,10 @@
     <t>No IMSS</t>
   </si>
   <si>
-    <t>No social security</t>
-  </si>
-  <si>
     <t>No SAT</t>
   </si>
   <si>
-    <t>Informal Hussmann</t>
-  </si>
-  <si>
-    <t>ENE (2000-2004)</t>
-  </si>
-  <si>
-    <t>ENOE (2005-2020)</t>
-  </si>
-  <si>
-    <t>No SS</t>
-  </si>
-  <si>
-    <t>Hussmann</t>
+    <t>ENOE (2005-2015)</t>
   </si>
 </sst>
 </file>
@@ -153,10 +138,12 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -170,12 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB8512-928C-4338-851B-25E1242197CB}">
-  <dimension ref="A2:K19"/>
+  <dimension ref="A6:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,291 +491,107 @@
     <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>-6.6430337936343254E-3</v>
-      </c>
-      <c r="D2">
-        <v>-3.4105998706788293E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>-6.6430337936343254E-3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.30099411204703952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>-3.4105998706788293E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.30099411204703952</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.89698297369771463</v>
+        <v>0.82385168899125372</v>
       </c>
       <c r="D6">
-        <v>0.97375113802162672</v>
-      </c>
-      <c r="E6">
-        <v>0.19659136680293091</v>
-      </c>
-      <c r="F6">
-        <v>0.22168328486105596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.12663254578233182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.89698297369771463</v>
+        <v>0.82385168899125372</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9311291681017535</v>
-      </c>
-      <c r="E7">
-        <v>0.14855961656921077</v>
-      </c>
-      <c r="F7">
-        <v>0.20772970176573369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.9432080710788586E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.97375113802162672</v>
+        <v>0.12663254578233182</v>
       </c>
       <c r="C8">
-        <v>0.9311291681017535</v>
+        <v>5.9432080710788586E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0.14662050762566339</v>
-      </c>
-      <c r="F8">
-        <v>0.19765945962290385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>0.19659136680293091</v>
-      </c>
-      <c r="C9">
-        <v>0.14855961656921077</v>
-      </c>
-      <c r="D9">
-        <v>0.14662050762566339</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.15213524801370362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>0.22168328486105596</v>
-      </c>
-      <c r="C10">
-        <v>0.20772970176573369</v>
-      </c>
-      <c r="D10">
-        <v>0.19765945962290385</v>
-      </c>
-      <c r="E10">
-        <v>0.15213524801370362</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <f>ROUND(B2,3)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="C14">
         <f>ROUND(B6,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15:D16" si="0">ROUND(B3,3)</f>
-        <v>-7.0000000000000001E-3</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15">
         <f>ROUND(B7,3)</f>
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H15">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D15">
         <f>ROUND(C7,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.4000000000000002E-2</v>
-      </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.30099999999999999</v>
+        <f>ROUND(B8,3)</f>
+        <v>0.127</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f>ROUND(B8,3)</f>
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="H16">
         <f>ROUND(C8,3)</f>
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="I16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E16" s="1">
         <f>ROUND(D8,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <f>ROUND(B9,3)</f>
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="H17">
-        <f>ROUND(C9,3)</f>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="I17">
-        <f>ROUND(D9,3)</f>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="J17">
-        <f>ROUND(E9,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <f>ROUND(B10,3)</f>
-        <v>0.222</v>
-      </c>
-      <c r="H18" s="1">
-        <f>ROUND(C10,3)</f>
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <f>ROUND(D10,3)</f>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="J18" s="1">
-        <f>ROUND(E10,3)</f>
-        <v>0.152</v>
-      </c>
-      <c r="K18" s="1">
-        <f>ROUND(F10,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
+  <mergeCells count="1">
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -794,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K19"/>
+  <dimension ref="A6:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,291 +611,118 @@
     <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.5645797551248893E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.8198033897503196E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>1.5645797551248893E-2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.48923823016205803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>3.8198033897503196E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.48923823016205803</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.64193047692073457</v>
+        <v>0.53708006065010616</v>
       </c>
       <c r="D6">
-        <v>0.53718101066786839</v>
-      </c>
-      <c r="E6">
-        <v>0.54305505057422765</v>
-      </c>
-      <c r="F6">
-        <v>0.23439200411254166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.20055775725737146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.64193047692073457</v>
+        <v>0.53708006065010616</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.34410886680560049</v>
-      </c>
-      <c r="E7">
-        <v>0.34731212729454142</v>
-      </c>
-      <c r="F7">
-        <v>0.32216300266308034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.3791289841396648E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.53718101066786839</v>
+        <v>0.20055775725737146</v>
       </c>
       <c r="C8">
-        <v>0.34410886680560049</v>
+        <v>6.3791289841396648E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0.98417384399878505</v>
-      </c>
-      <c r="F8">
-        <v>7.8517043945591308E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>0.54305505057422765</v>
-      </c>
-      <c r="C9">
-        <v>0.34731212729454142</v>
-      </c>
-      <c r="D9">
-        <v>0.98417384399878505</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>8.0906677114266939E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>0.23439200411254166</v>
-      </c>
-      <c r="C10">
-        <v>0.32216300266308034</v>
-      </c>
-      <c r="D10">
-        <v>7.8517043945591308E-2</v>
-      </c>
-      <c r="E10">
-        <v>8.0906677114266939E-2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8">
-        <f>ROUND(B2,3)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="C14">
         <f>ROUND(B6,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15:D16" si="0">ROUND(B3,3)</f>
-        <v>1.6E-2</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15">
         <f>ROUND(B7,3)</f>
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="H15">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D15">
         <f>ROUND(C7,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.48899999999999999</v>
+        <f>ROUND(B8,3)</f>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f>ROUND(B8,3)</f>
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="H16">
         <f>ROUND(C8,3)</f>
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="I16">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E16" s="1">
         <f>ROUND(D8,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <f>ROUND(B9,3)</f>
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="H17">
-        <f>ROUND(C9,3)</f>
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="I17">
-        <f>ROUND(D9,3)</f>
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="J17">
-        <f>ROUND(E9,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <f>ROUND(B10,3)</f>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <f>ROUND(C10,3)</f>
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="I18" s="1">
-        <f>ROUND(D10,3)</f>
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <f>ROUND(E10,3)</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <f>ROUND(F10,3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
+  <mergeCells count="1">
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/corr_informal.xlsx
+++ b/Tables/corr_informal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D355F0E-DEE8-4072-A80D-53EE64C512FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="corr_informal_mun" sheetId="2" r:id="rId1"/>
     <sheet name="corr_informal" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,17 +152,17 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,44 +487,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="18.453125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.82385168899125372</v>
+        <v>0.88918656686885789</v>
       </c>
       <c r="D6">
-        <v>0.12663254578233182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.15506725842219127</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.82385168899125372</v>
+        <v>0.88918656686885789</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5.9432080710788586E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.10325029503081508</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.12663254578233182</v>
+        <v>0.15506725842219127</v>
       </c>
       <c r="C8">
-        <v>5.9432080710788586E-2</v>
+        <v>0.10325029503081508</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
@@ -533,7 +533,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15" thickTop="true" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" thickTop="true" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C12:E12"/>
@@ -601,56 +601,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="18.453125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.53708006065010616</v>
+        <v>0.53708510070133442</v>
       </c>
       <c r="D6">
-        <v>0.20055775725737146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.19821383040605078</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>0.53708006065010616</v>
+        <v>0.53708510070133442</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6.3791289841396648E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.058346638517331406</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>0.20055775725737146</v>
+        <v>0.19821383040605078</v>
       </c>
       <c r="C8">
-        <v>6.3791289841396648E-2</v>
+        <v>0.058346638517331406</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
@@ -659,7 +659,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15" thickTop="true" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" ht="15" thickBot="true" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15" thickTop="true" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>

--- a/Tables/corr_informal.xlsx
+++ b/Tables/corr_informal.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D355F0E-DEE8-4072-A80D-53EE64C512FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A032C-591F-4D9E-90B0-546B6FF88D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corr_informal_mun" sheetId="2" r:id="rId1"/>
     <sheet name="corr_informal" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,17 +152,17 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,16 +482,16 @@
   <dimension ref="A6:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="18.453125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0.15506725842219127</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.88918656686885789</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.10325029503081508</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.15506725842219127</v>
       </c>
@@ -524,16 +524,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="15" thickBot="true" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15" thickTop="true" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -556,39 +556,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C15">
         <f>ROUND(B7,3)</f>
-        <v>0.82399999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D15">
         <f>ROUND(C7,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" thickBot="true" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="1">
         <f>ROUND(B8,3)</f>
-        <v>0.127</v>
+        <v>0.155</v>
       </c>
       <c r="D16" s="1">
         <f>ROUND(C8,3)</f>
-        <v>5.8999999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E16" s="1">
         <f>ROUND(D8,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="true" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C12:E12"/>
@@ -601,17 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:E17"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="18.453125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>1</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.19821383040605078</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.53708510070133442</v>
       </c>
@@ -630,39 +630,39 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.058346638517331406</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.35">
+        <v>5.8346638517331406E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.19821383040605078</v>
       </c>
       <c r="C8">
-        <v>0.058346638517331406</v>
+        <v>5.8346638517331406E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="15" thickBot="true" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15" thickTop="true" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -696,25 +696,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" thickBot="true" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="1">
         <f>ROUND(B8,3)</f>
-        <v>0.20100000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D16" s="1">
         <f>ROUND(C8,3)</f>
-        <v>6.4000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E16" s="1">
         <f>ROUND(D8,3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="true" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
